--- a/inst/extdata/test_xtab2015.xlsx
+++ b/inst/extdata/test_xtab2015.xlsx
@@ -17,7 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE101" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE102" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE103" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="TABLE104" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="TABLE104" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE105" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE106" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE107" vbProcedure="false">#REF!</definedName>
@@ -32,13 +32,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE115" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE12" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="TABLE14" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="TABLE14" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$36</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE15" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE16" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE17" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE18" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE19" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="TABLE2" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="TABLE2" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$14</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE20" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE21" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE22" vbProcedure="false">#REF!</definedName>
@@ -49,7 +49,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE27" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE28" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE29" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="TABLE3" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="TABLE3" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$25</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE30" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE31" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE32" vbProcedure="false">#REF!</definedName>
@@ -60,7 +60,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE37" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE38" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE39" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="TABLE4" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="TABLE4" vbProcedure="false">'DataHaven2015 Greater New Haven'!$A$26</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE40" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE41" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="TABLE42" vbProcedure="false">#REF!</definedName>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="88">
   <si>
     <t xml:space="preserve">Greater New Haven</t>
   </si>
@@ -148,99 +148,108 @@
     <t xml:space="preserve">Sample Size (Weighted)</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1. Are you satisfied with the city or area where you live? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race/Ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children in HH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black/Afr Amer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than High School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some college or Associate's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor's or higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;$15K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$15K-$30K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$30K-$50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50K-$75K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$75K-$100K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$100K-$200K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$200K+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refused</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q2. As a place to live, is the city or area where you live getting much better, getting somewhat better, remaining about the same, getting somewhat worse or getting much worse? </t>
   </si>
   <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Race/Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children in HH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecticut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black/Afr Amer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some college or Associate's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor's or higher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;$15K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$15K-$30K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30K-$50K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$50K-$75K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$75K-$100K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$100K-$200K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$200K+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Much better</t>
   </si>
   <si>
@@ -254,12 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Much worse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refused</t>
   </si>
   <si>
     <t xml:space="preserve">Q3A. Now I'm going to ask you to think about some aspects of life in your city or area. For each of the following, I'd like you to rate that part of life in your area as excellent, good, fair, poor or let me know if you simply don't know enough in order to say </t>
@@ -533,7 +536,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,6 +571,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -703,10 +730,10 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.33"/>
@@ -726,7 +753,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="2" width="8.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="8.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="2" width="7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -948,64 +975,64 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1045,7 +1072,7 @@
       </c>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
@@ -1123,2539 +1150,2539 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="14" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="C9" s="14" t="n">
-        <v>0.06</v>
+        <v>0.82</v>
       </c>
       <c r="D9" s="14" t="n">
-        <v>0.06</v>
+        <v>0.8</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.05</v>
+        <v>0.84</v>
       </c>
       <c r="F9" s="14" t="n">
-        <v>0.04</v>
+        <v>0.85</v>
       </c>
       <c r="G9" s="14" t="n">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="H9" s="14" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="I9" s="14" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="J9" s="14" t="n">
-        <v>0.04</v>
+        <v>0.84</v>
       </c>
       <c r="K9" s="14" t="n">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>0.09</v>
+        <v>0.78</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>0.07</v>
+        <v>0.72</v>
       </c>
       <c r="N9" s="14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P9" s="14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R9" s="14" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S9" s="14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T9" s="14" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="U9" s="14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V9" s="14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="W9" s="14" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X9" s="14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y9" s="14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z9" s="14" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H10" s="14" t="n">
         <v>0.16</v>
       </c>
-      <c r="O9" s="14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P9" s="14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q9" s="14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R9" s="14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S9" s="14" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T9" s="14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U9" s="14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V9" s="14" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W9" s="14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X9" s="14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y9" s="14" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="Z9" s="14" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="14" t="n">
+      <c r="I10" s="14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L10" s="14" t="n">
         <v>0.21</v>
       </c>
-      <c r="C10" s="14" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="14" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F10" s="14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H10" s="14" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I10" s="14" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J10" s="14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="14" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="L10" s="14" t="n">
+      <c r="M10" s="14" t="n">
         <v>0.24</v>
-      </c>
-      <c r="M10" s="14" t="n">
-        <v>0.2</v>
       </c>
       <c r="N10" s="14" t="n">
         <v>0.2</v>
       </c>
       <c r="O10" s="14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P10" s="14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R10" s="14" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S10" s="14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U10" s="14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V10" s="14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W10" s="14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X10" s="14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y10" s="14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z10" s="14" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M11" s="14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R11" s="14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z11" s="14" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E17" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H17" s="20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I17" s="20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L17" s="20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M17" s="20" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="N17" s="20" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O17" s="20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P17" s="20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q17" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R17" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S17" s="20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T17" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U17" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V17" s="20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W17" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X17" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y17" s="20" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="Z17" s="20" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="20" t="n">
         <v>0.21</v>
       </c>
-      <c r="P10" s="14" t="n">
+      <c r="C18" s="20" t="n">
         <v>0.21</v>
       </c>
-      <c r="Q10" s="14" t="n">
+      <c r="D18" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H18" s="20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I18" s="20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L18" s="20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M18" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P18" s="20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q18" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="R10" s="14" t="n">
+      <c r="R18" s="20" t="n">
         <v>0.21</v>
       </c>
-      <c r="S10" s="14" t="n">
+      <c r="S18" s="20" t="n">
         <v>0.23</v>
       </c>
-      <c r="T10" s="14" t="n">
+      <c r="T18" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="U10" s="14" t="n">
+      <c r="U18" s="20" t="n">
         <v>0.19</v>
       </c>
-      <c r="V10" s="14" t="n">
+      <c r="V18" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="W10" s="14" t="n">
+      <c r="W18" s="20" t="n">
         <v>0.19</v>
       </c>
-      <c r="X10" s="14" t="n">
+      <c r="X18" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="Y10" s="14" t="n">
+      <c r="Y18" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="Z10" s="14" t="n">
+      <c r="Z18" s="20" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="14" t="n">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="20" t="n">
         <v>0.49</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C19" s="20" t="n">
         <v>0.49</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D19" s="20" t="n">
         <v>0.51</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E19" s="20" t="n">
         <v>0.47</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F19" s="20" t="n">
         <v>0.48</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G19" s="20" t="n">
         <v>0.52</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H19" s="20" t="n">
         <v>0.45</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I19" s="20" t="n">
         <v>0.49</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J19" s="20" t="n">
         <v>0.51</v>
       </c>
-      <c r="K11" s="14" t="n">
+      <c r="K19" s="20" t="n">
         <v>0.39</v>
       </c>
-      <c r="L11" s="14" t="n">
+      <c r="L19" s="20" t="n">
         <v>0.37</v>
       </c>
-      <c r="M11" s="14" t="n">
+      <c r="M19" s="20" t="n">
         <v>0.47</v>
       </c>
-      <c r="N11" s="14" t="n">
+      <c r="N19" s="20" t="n">
         <v>0.32</v>
       </c>
-      <c r="O11" s="14" t="n">
+      <c r="O19" s="20" t="n">
         <v>0.43</v>
       </c>
-      <c r="P11" s="14" t="n">
+      <c r="P19" s="20" t="n">
         <v>0.48</v>
       </c>
-      <c r="Q11" s="14" t="n">
+      <c r="Q19" s="20" t="n">
         <v>0.53</v>
       </c>
-      <c r="R11" s="14" t="n">
+      <c r="R19" s="20" t="n">
         <v>0.31</v>
       </c>
-      <c r="S11" s="14" t="n">
+      <c r="S19" s="20" t="n">
         <v>0.41</v>
       </c>
-      <c r="T11" s="14" t="n">
+      <c r="T19" s="20" t="n">
         <v>0.45</v>
       </c>
-      <c r="U11" s="14" t="n">
+      <c r="U19" s="20" t="n">
         <v>0.57</v>
       </c>
-      <c r="V11" s="14" t="n">
+      <c r="V19" s="20" t="n">
         <v>0.58</v>
       </c>
-      <c r="W11" s="14" t="n">
+      <c r="W19" s="20" t="n">
         <v>0.58</v>
       </c>
-      <c r="X11" s="14" t="n">
+      <c r="X19" s="20" t="n">
         <v>0.52</v>
       </c>
-      <c r="Y11" s="14" t="n">
+      <c r="Y19" s="20" t="n">
         <v>0.47</v>
       </c>
-      <c r="Z11" s="14" t="n">
+      <c r="Z19" s="20" t="n">
         <v>0.52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="14" t="n">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C20" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D20" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E20" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F20" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G20" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H20" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I20" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J20" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="K12" s="14" t="n">
+      <c r="K20" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="L12" s="14" t="n">
+      <c r="L20" s="20" t="n">
         <v>0.19</v>
       </c>
-      <c r="M12" s="14" t="n">
+      <c r="M20" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="N12" s="14" t="n">
+      <c r="N20" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="O12" s="14" t="n">
+      <c r="O20" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="P12" s="14" t="n">
+      <c r="P20" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="Q12" s="14" t="n">
+      <c r="Q20" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="R12" s="14" t="n">
+      <c r="R20" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="S12" s="14" t="n">
+      <c r="S20" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="T12" s="14" t="n">
+      <c r="T20" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="U12" s="14" t="n">
+      <c r="U20" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="V12" s="14" t="n">
+      <c r="V20" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="W12" s="14" t="n">
+      <c r="W20" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="X12" s="14" t="n">
+      <c r="X20" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="Y12" s="14" t="n">
+      <c r="Y20" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="Z12" s="14" t="n">
+      <c r="Z20" s="20" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="14" t="n">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C21" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D21" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E21" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F21" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G21" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H21" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I21" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J21" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="K13" s="14" t="n">
+      <c r="K21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="L13" s="14" t="n">
+      <c r="L21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="M13" s="14" t="n">
+      <c r="M21" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="N13" s="14" t="n">
+      <c r="N21" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="O13" s="14" t="n">
+      <c r="O21" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="P13" s="14" t="n">
+      <c r="P21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q13" s="14" t="n">
+      <c r="Q21" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="R13" s="14" t="n">
+      <c r="R21" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="S13" s="14" t="n">
+      <c r="S21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="T13" s="14" t="n">
+      <c r="T21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="U13" s="14" t="n">
+      <c r="U21" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="V13" s="14" t="n">
+      <c r="V21" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="W13" s="14" t="n">
+      <c r="W21" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="X13" s="14" t="n">
+      <c r="X21" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="Y13" s="14" t="n">
+      <c r="Y21" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z13" s="14" t="n">
+      <c r="Z21" s="20" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="14" t="n">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="D14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="n">
+      <c r="D22" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="G14" s="14" t="n">
+      <c r="G22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="I14" s="14" t="n">
+      <c r="I22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="K14" s="14" t="n">
+      <c r="K22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="L14" s="14" t="n">
+      <c r="L22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="M14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14" t="n">
+      <c r="M22" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="O14" s="14" t="n">
+      <c r="O22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="P14" s="14" t="n">
+      <c r="P22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q14" s="14" t="n">
+      <c r="Q22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="R14" s="14" t="n">
+      <c r="R22" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="S14" s="14" t="n">
+      <c r="S22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="T14" s="14" t="n">
+      <c r="T22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="U14" s="14" t="n">
+      <c r="U22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="V14" s="14" t="n">
+      <c r="V22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="W14" s="14" t="n">
+      <c r="W22" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="X14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="14" t="n">
+      <c r="X22" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z14" s="14" t="n">
+      <c r="Z22" s="20" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12" t="s">
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12" t="s">
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12" t="s">
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="Z27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="S28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="T28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="U28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="V28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="12" t="s">
+      <c r="W28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="X20" s="12" t="s">
+      <c r="X28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Y20" s="12" t="s">
+      <c r="Y28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Z20" s="12" t="s">
+      <c r="Z28" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="14" t="n">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C29" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D29" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E29" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F29" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="G29" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H29" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="I21" s="14" t="n">
+      <c r="I29" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J29" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="K29" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="L21" s="14" t="n">
+      <c r="L29" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="M21" s="14" t="n">
+      <c r="M29" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="N21" s="14" t="n">
+      <c r="N29" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="O21" s="14" t="n">
+      <c r="O29" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="P21" s="14" t="n">
+      <c r="P29" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="Q21" s="14" t="n">
+      <c r="Q29" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="R21" s="14" t="n">
+      <c r="R29" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="S21" s="14" t="n">
+      <c r="S29" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="T21" s="14" t="n">
+      <c r="T29" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="U21" s="14" t="n">
+      <c r="U29" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="V21" s="14" t="n">
+      <c r="V29" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="W21" s="14" t="n">
+      <c r="W29" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="X21" s="14" t="n">
+      <c r="X29" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="Y21" s="14" t="n">
+      <c r="Y29" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="Z21" s="14" t="n">
+      <c r="Z29" s="20" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="14" t="n">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="C22" s="14" t="n">
+      <c r="C30" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D30" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E30" s="20" t="n">
         <v>0.32</v>
       </c>
-      <c r="F22" s="14" t="n">
+      <c r="F30" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="G22" s="14" t="n">
+      <c r="G30" s="20" t="n">
         <v>0.3</v>
       </c>
-      <c r="H22" s="14" t="n">
+      <c r="H30" s="20" t="n">
         <v>0.38</v>
       </c>
-      <c r="I22" s="14" t="n">
+      <c r="I30" s="20" t="n">
         <v>0.42</v>
       </c>
-      <c r="J22" s="14" t="n">
+      <c r="J30" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="K22" s="14" t="n">
+      <c r="K30" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="L22" s="14" t="n">
+      <c r="L30" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="M22" s="14" t="n">
+      <c r="M30" s="20" t="n">
         <v>0.3</v>
       </c>
-      <c r="N22" s="14" t="n">
+      <c r="N30" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="O22" s="14" t="n">
+      <c r="O30" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="P22" s="14" t="n">
+      <c r="P30" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q22" s="14" t="n">
+      <c r="Q30" s="20" t="n">
         <v>0.38</v>
       </c>
-      <c r="R22" s="14" t="n">
+      <c r="R30" s="20" t="n">
         <v>0.24</v>
       </c>
-      <c r="S22" s="14" t="n">
+      <c r="S30" s="20" t="n">
         <v>0.3</v>
       </c>
-      <c r="T22" s="14" t="n">
+      <c r="T30" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="U22" s="14" t="n">
+      <c r="U30" s="20" t="n">
         <v>0.3</v>
       </c>
-      <c r="V22" s="14" t="n">
+      <c r="V30" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="W22" s="14" t="n">
+      <c r="W30" s="20" t="n">
         <v>0.43</v>
       </c>
-      <c r="X22" s="14" t="n">
+      <c r="X30" s="20" t="n">
         <v>0.35</v>
       </c>
-      <c r="Y22" s="14" t="n">
+      <c r="Y30" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="Z22" s="14" t="n">
+      <c r="Z30" s="20" t="n">
         <v>0.32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="14" t="n">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="C23" s="14" t="n">
+      <c r="C31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="D23" s="14" t="n">
+      <c r="D31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="F23" s="14" t="n">
+      <c r="F31" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="G23" s="14" t="n">
+      <c r="G31" s="20" t="n">
         <v>0.32</v>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H31" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="I23" s="14" t="n">
+      <c r="I31" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="J23" s="14" t="n">
+      <c r="J31" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="K23" s="14" t="n">
+      <c r="K31" s="20" t="n">
         <v>0.31</v>
       </c>
-      <c r="L23" s="14" t="n">
+      <c r="L31" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="M23" s="14" t="n">
+      <c r="M31" s="20" t="n">
         <v>0.3</v>
       </c>
-      <c r="N23" s="14" t="n">
+      <c r="N31" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="O23" s="14" t="n">
+      <c r="O31" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="P23" s="14" t="n">
+      <c r="P31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q23" s="14" t="n">
+      <c r="Q31" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="R23" s="14" t="n">
+      <c r="R31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="S23" s="14" t="n">
+      <c r="S31" s="20" t="n">
         <v>0.33</v>
       </c>
-      <c r="T23" s="14" t="n">
+      <c r="T31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="U23" s="14" t="n">
+      <c r="U31" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="V23" s="14" t="n">
+      <c r="V31" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="W23" s="14" t="n">
+      <c r="W31" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="X23" s="14" t="n">
+      <c r="X31" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="Y23" s="14" t="n">
+      <c r="Y31" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="Z23" s="14" t="n">
+      <c r="Z31" s="20" t="n">
         <v>0.29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="14" t="n">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C32" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D32" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E32" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F32" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G32" s="20" t="n">
         <v>0.23</v>
       </c>
-      <c r="H24" s="14" t="n">
+      <c r="H32" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I32" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="J24" s="14" t="n">
+      <c r="J32" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="K24" s="14" t="n">
+      <c r="K32" s="20" t="n">
         <v>0.24</v>
       </c>
-      <c r="L24" s="14" t="n">
+      <c r="L32" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="M24" s="14" t="n">
+      <c r="M32" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="N24" s="14" t="n">
+      <c r="N32" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="O24" s="14" t="n">
+      <c r="O32" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="P24" s="14" t="n">
+      <c r="P32" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="Q24" s="14" t="n">
+      <c r="Q32" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="R24" s="14" t="n">
+      <c r="R32" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="S24" s="14" t="n">
+      <c r="S32" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="T24" s="14" t="n">
+      <c r="T32" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="U24" s="14" t="n">
+      <c r="U32" s="20" t="n">
         <v>0.23</v>
       </c>
-      <c r="V24" s="14" t="n">
+      <c r="V32" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="W24" s="14" t="n">
+      <c r="W32" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="X24" s="14" t="n">
+      <c r="X32" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="Y24" s="14" t="n">
+      <c r="Y32" s="20" t="n">
         <v>0.17</v>
       </c>
-      <c r="Z24" s="14" t="n">
+      <c r="Z32" s="20" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="14" t="n">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C33" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D33" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E33" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="F25" s="14" t="n">
+      <c r="F33" s="20" t="n">
         <v>0.24</v>
       </c>
-      <c r="G25" s="14" t="n">
+      <c r="G33" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H33" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I33" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="J25" s="14" t="n">
+      <c r="J33" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="K25" s="14" t="n">
+      <c r="K33" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="L25" s="14" t="n">
+      <c r="L33" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="M25" s="14" t="n">
+      <c r="M33" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="N25" s="14" t="n">
+      <c r="N33" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="O25" s="14" t="n">
+      <c r="O33" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="P25" s="14" t="n">
+      <c r="P33" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="Q25" s="14" t="n">
+      <c r="Q33" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="R25" s="14" t="n">
+      <c r="R33" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="S25" s="14" t="n">
+      <c r="S33" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="T25" s="14" t="n">
+      <c r="T33" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="U25" s="14" t="n">
+      <c r="U33" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="V25" s="14" t="n">
+      <c r="V33" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="W25" s="14" t="n">
+      <c r="W33" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="X25" s="14" t="n">
+      <c r="X33" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y25" s="14" t="n">
+      <c r="Y33" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="Z25" s="14" t="n">
+      <c r="Z33" s="20" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12" t="s">
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12" t="s">
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12" t="s">
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Z29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="Z37" s="18"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G38" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I38" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M38" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="N38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="O38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R38" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="S38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U30" s="12" t="s">
+      <c r="U38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="V30" s="12" t="s">
+      <c r="V38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W30" s="12" t="s">
+      <c r="W38" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="X30" s="12" t="s">
+      <c r="X38" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Y30" s="12" t="s">
+      <c r="Y38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Z30" s="12" t="s">
+      <c r="Z38" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="14" t="n">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="20" t="n">
         <v>0.85</v>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C39" s="20" t="n">
         <v>0.82</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D39" s="20" t="n">
         <v>0.83</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E39" s="20" t="n">
         <v>0.82</v>
       </c>
-      <c r="F31" s="14" t="n">
+      <c r="F39" s="20" t="n">
         <v>0.75</v>
       </c>
-      <c r="G31" s="14" t="n">
+      <c r="G39" s="20" t="n">
         <v>0.88</v>
       </c>
-      <c r="H31" s="14" t="n">
+      <c r="H39" s="20" t="n">
         <v>0.86</v>
       </c>
-      <c r="I31" s="14" t="n">
+      <c r="I39" s="20" t="n">
         <v>0.8</v>
       </c>
-      <c r="J31" s="14" t="n">
+      <c r="J39" s="20" t="n">
         <v>0.88</v>
       </c>
-      <c r="K31" s="14" t="n">
+      <c r="K39" s="20" t="n">
         <v>0.65</v>
       </c>
-      <c r="L31" s="14" t="n">
+      <c r="L39" s="20" t="n">
         <v>0.64</v>
       </c>
-      <c r="M31" s="14" t="n">
+      <c r="M39" s="20" t="n">
         <v>0.65</v>
       </c>
-      <c r="N31" s="14" t="n">
+      <c r="N39" s="20" t="n">
         <v>0.41</v>
       </c>
-      <c r="O31" s="14" t="n">
+      <c r="O39" s="20" t="n">
         <v>0.69</v>
       </c>
-      <c r="P31" s="14" t="n">
+      <c r="P39" s="20" t="n">
         <v>0.81</v>
       </c>
-      <c r="Q31" s="14" t="n">
+      <c r="Q39" s="20" t="n">
         <v>0.93</v>
       </c>
-      <c r="R31" s="14" t="n">
+      <c r="R39" s="20" t="n">
         <v>0.43</v>
       </c>
-      <c r="S31" s="14" t="n">
+      <c r="S39" s="20" t="n">
         <v>0.76</v>
       </c>
-      <c r="T31" s="14" t="n">
+      <c r="T39" s="20" t="n">
         <v>0.85</v>
       </c>
-      <c r="U31" s="14" t="n">
+      <c r="U39" s="20" t="n">
         <v>0.93</v>
       </c>
-      <c r="V31" s="14" t="n">
+      <c r="V39" s="20" t="n">
         <v>0.92</v>
       </c>
-      <c r="W31" s="14" t="n">
+      <c r="W39" s="20" t="n">
         <v>0.96</v>
       </c>
-      <c r="X31" s="14" t="n">
+      <c r="X39" s="20" t="n">
         <v>0.97</v>
       </c>
-      <c r="Y31" s="14" t="n">
+      <c r="Y39" s="20" t="n">
         <v>0.81</v>
       </c>
-      <c r="Z31" s="14" t="n">
+      <c r="Z39" s="20" t="n">
         <v>0.84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="14" t="n">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="F32" s="14" t="n">
+      <c r="F40" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="G32" s="14" t="n">
+      <c r="G40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="H32" s="14" t="n">
+      <c r="H40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="I32" s="14" t="n">
+      <c r="I40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="J32" s="14" t="n">
+      <c r="J40" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="K32" s="14" t="n">
+      <c r="K40" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="L32" s="14" t="n">
+      <c r="L40" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="M32" s="14" t="n">
+      <c r="M40" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="N32" s="14" t="n">
+      <c r="N40" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="O32" s="14" t="n">
+      <c r="O40" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="P32" s="14" t="n">
+      <c r="P40" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q32" s="14" t="n">
+      <c r="Q40" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="R32" s="14" t="n">
+      <c r="R40" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="S32" s="14" t="n">
+      <c r="S40" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="T32" s="14" t="n">
+      <c r="T40" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="U32" s="14" t="n">
+      <c r="U40" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="V32" s="14" t="n">
+      <c r="V40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="W32" s="14" t="n">
+      <c r="W40" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="X32" s="14" t="n">
+      <c r="X40" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="Y32" s="14" t="n">
+      <c r="Y40" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="Z32" s="14" t="n">
+      <c r="Z40" s="20" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="14" t="n">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C41" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D41" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E41" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="F33" s="14" t="n">
+      <c r="F41" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="G33" s="14" t="n">
+      <c r="G41" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="H33" s="14" t="n">
+      <c r="H41" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="I33" s="14" t="n">
+      <c r="I41" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J33" s="14" t="n">
+      <c r="J41" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="K33" s="14" t="n">
+      <c r="K41" s="20" t="n">
         <v>0.11</v>
       </c>
-      <c r="L33" s="14" t="n">
+      <c r="L41" s="20" t="n">
         <v>0.16</v>
       </c>
-      <c r="M33" s="14" t="n">
+      <c r="M41" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="N33" s="14" t="n">
+      <c r="N41" s="20" t="n">
         <v>0.19</v>
       </c>
-      <c r="O33" s="14" t="n">
+      <c r="O41" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="P33" s="14" t="n">
+      <c r="P41" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q33" s="14" t="n">
+      <c r="Q41" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="R33" s="14" t="n">
+      <c r="R41" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="S33" s="14" t="n">
+      <c r="S41" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="T33" s="14" t="n">
+      <c r="T41" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="U33" s="14" t="n">
+      <c r="U41" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="V33" s="14" t="n">
+      <c r="V41" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="W33" s="14" t="n">
+      <c r="W41" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="X33" s="14" t="n">
+      <c r="X41" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="Y33" s="14" t="n">
+      <c r="Y41" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z33" s="14" t="n">
+      <c r="Z41" s="20" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="14" t="n">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C42" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D42" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E42" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="F34" s="14" t="n">
+      <c r="F42" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="G34" s="14" t="n">
+      <c r="G42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="H34" s="14" t="n">
+      <c r="H42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="I34" s="14" t="n">
+      <c r="I42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="J34" s="14" t="n">
+      <c r="J42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="K34" s="14" t="n">
+      <c r="K42" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="L34" s="14" t="n">
+      <c r="L42" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="M34" s="14" t="n">
+      <c r="M42" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="N34" s="14" t="n">
+      <c r="N42" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="O34" s="14" t="n">
+      <c r="O42" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="P34" s="14" t="n">
+      <c r="P42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="14" t="n">
+      <c r="Q42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="S34" s="14" t="n">
+      <c r="S42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="T34" s="14" t="n">
+      <c r="T42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="U34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="14" t="n">
+      <c r="U42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="X34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="14" t="n">
+      <c r="X42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z34" s="14" t="n">
+      <c r="Z42" s="20" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="14" t="n">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="C35" s="14" t="n">
+      <c r="C43" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="D35" s="14" t="n">
+      <c r="D43" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E43" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="F35" s="14" t="n">
+      <c r="F43" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="G35" s="14" t="n">
+      <c r="G43" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="H35" s="14" t="n">
+      <c r="H43" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I35" s="14" t="n">
+      <c r="I43" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="J35" s="14" t="n">
+      <c r="J43" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="K35" s="14" t="n">
+      <c r="K43" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="L35" s="14" t="n">
+      <c r="L43" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="M35" s="14" t="n">
+      <c r="M43" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="N35" s="14" t="n">
+      <c r="N43" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="O35" s="14" t="n">
+      <c r="O43" s="20" t="n">
         <v>0.11</v>
       </c>
-      <c r="P35" s="14" t="n">
+      <c r="P43" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q35" s="14" t="n">
+      <c r="Q43" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="R35" s="14" t="n">
+      <c r="R43" s="20" t="n">
         <v>0.23</v>
       </c>
-      <c r="S35" s="14" t="n">
+      <c r="S43" s="20" t="n">
         <v>0.11</v>
       </c>
-      <c r="T35" s="14" t="n">
+      <c r="T43" s="20" t="n">
         <v>0.03</v>
       </c>
-      <c r="U35" s="14" t="n">
+      <c r="U43" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="V35" s="14" t="n">
+      <c r="V43" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="W35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="14" t="n">
+      <c r="W43" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="Z35" s="14" t="n">
+      <c r="Z43" s="20" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="14" t="n">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="L36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="14" t="n">
+      <c r="L44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="14" t="n">
+      <c r="Q44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="V36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="U42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V42" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="W42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X42" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y42" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z42" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C43" s="14" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D43" s="14" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E43" s="14" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I43" s="14" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J43" s="14" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K43" s="14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L43" s="14" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M43" s="14" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N43" s="14" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O43" s="14" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="P43" s="14" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Q43" s="14" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R43" s="14" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S43" s="14" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T43" s="14" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="U43" s="14" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="V43" s="14" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="W43" s="14" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X43" s="14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y43" s="14" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Z43" s="14" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C44" s="14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D44" s="14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E44" s="14" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F44" s="14" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G44" s="14" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H44" s="14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I44" s="14" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J44" s="14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K44" s="14" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="L44" s="14" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M44" s="14" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N44" s="14" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O44" s="14" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="P44" s="14" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Q44" s="14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R44" s="14" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S44" s="14" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T44" s="14" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="U44" s="14" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="V44" s="14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W44" s="14" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="X44" s="14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y44" s="14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Z44" s="14" t="n">
-        <v>0.65</v>
+      <c r="V44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L45" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S45" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="14" t="n">
+      <c r="A45" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
@@ -3688,1304 +3715,1792 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12" t="s">
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12" t="s">
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12" t="s">
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Z49" s="12"/>
+      <c r="Z49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="12" t="s">
+      <c r="M50" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="12" t="s">
+      <c r="O50" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P50" s="12" t="s">
+      <c r="P50" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q50" s="12" t="s">
+      <c r="Q50" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R50" s="12" t="s">
+      <c r="R50" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="12" t="s">
+      <c r="S50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T50" s="12" t="s">
+      <c r="T50" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U50" s="12" t="s">
+      <c r="U50" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="V50" s="12" t="s">
+      <c r="V50" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W50" s="12" t="s">
+      <c r="W50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="X50" s="12" t="s">
+      <c r="X50" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Y50" s="12" t="s">
+      <c r="Y50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Z50" s="12" t="s">
+      <c r="Z50" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C51" s="20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D51" s="20" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E51" s="20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F51" s="20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G51" s="20" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H51" s="20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I51" s="20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J51" s="20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K51" s="20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L51" s="20" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M51" s="20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N51" s="20" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O51" s="20" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P51" s="20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Q51" s="20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R51" s="20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S51" s="20" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T51" s="20" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="U51" s="20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="V51" s="20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W51" s="20" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X51" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y51" s="20" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Z51" s="20" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C52" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D52" s="20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E52" s="20" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F52" s="20" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G52" s="20" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H52" s="20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I52" s="20" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J52" s="20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K52" s="20" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="L52" s="20" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M52" s="20" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N52" s="20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O52" s="20" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P52" s="20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q52" s="20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R52" s="20" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S52" s="20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T52" s="20" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="U52" s="20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V52" s="20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="W52" s="20" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="X52" s="20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y52" s="20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Z52" s="20" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L53" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S53" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="14" t="n">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z57" s="18"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P58" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T58" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V58" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X58" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y58" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z58" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="C51" s="14" t="n">
+      <c r="C59" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="D51" s="14" t="n">
+      <c r="D59" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="E59" s="20" t="n">
         <v>0.24</v>
       </c>
-      <c r="F51" s="14" t="n">
+      <c r="F59" s="20" t="n">
         <v>0.38</v>
       </c>
-      <c r="G51" s="14" t="n">
+      <c r="G59" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="H51" s="14" t="n">
+      <c r="H59" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="I51" s="14" t="n">
+      <c r="I59" s="20" t="n">
         <v>0.11</v>
       </c>
-      <c r="J51" s="14" t="n">
+      <c r="J59" s="20" t="n">
         <v>0.23</v>
       </c>
-      <c r="K51" s="14" t="n">
+      <c r="K59" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="L51" s="14" t="n">
+      <c r="L59" s="20" t="n">
         <v>0.37</v>
       </c>
-      <c r="M51" s="14" t="n">
+      <c r="M59" s="20" t="n">
         <v>0.4</v>
       </c>
-      <c r="N51" s="14" t="n">
+      <c r="N59" s="20" t="n">
         <v>0.35</v>
       </c>
-      <c r="O51" s="14" t="n">
+      <c r="O59" s="20" t="n">
         <v>0.37</v>
       </c>
-      <c r="P51" s="14" t="n">
+      <c r="P59" s="20" t="n">
         <v>0.24</v>
       </c>
-      <c r="Q51" s="14" t="n">
+      <c r="Q59" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="R51" s="14" t="n">
+      <c r="R59" s="20" t="n">
         <v>0.42</v>
       </c>
-      <c r="S51" s="14" t="n">
+      <c r="S59" s="20" t="n">
         <v>0.39</v>
       </c>
-      <c r="T51" s="14" t="n">
+      <c r="T59" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="U51" s="14" t="n">
+      <c r="U59" s="20" t="n">
         <v>0.22</v>
       </c>
-      <c r="V51" s="14" t="n">
+      <c r="V59" s="20" t="n">
         <v>0.27</v>
       </c>
-      <c r="W51" s="14" t="n">
+      <c r="W59" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="X51" s="14" t="n">
+      <c r="X59" s="20" t="n">
         <v>0.25</v>
       </c>
-      <c r="Y51" s="14" t="n">
+      <c r="Y59" s="20" t="n">
         <v>0.26</v>
       </c>
-      <c r="Z51" s="14" t="n">
+      <c r="Z59" s="20" t="n">
         <v>0.22</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="14" t="n">
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="20" t="n">
         <v>0.11</v>
       </c>
-      <c r="C52" s="14" t="n">
+      <c r="C60" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="D52" s="14" t="n">
+      <c r="D60" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="E52" s="14" t="n">
+      <c r="E60" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="F52" s="14" t="n">
+      <c r="F60" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="G52" s="14" t="n">
+      <c r="G60" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="H52" s="14" t="n">
+      <c r="H60" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="I52" s="14" t="n">
+      <c r="I60" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J52" s="14" t="n">
+      <c r="J60" s="20" t="n">
         <v>0.11</v>
       </c>
-      <c r="K52" s="14" t="n">
+      <c r="K60" s="20" t="n">
         <v>0.18</v>
       </c>
-      <c r="L52" s="14" t="n">
+      <c r="L60" s="20" t="n">
         <v>0.19</v>
       </c>
-      <c r="M52" s="14" t="n">
+      <c r="M60" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="N52" s="14" t="n">
+      <c r="N60" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="O52" s="14" t="n">
+      <c r="O60" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="P52" s="14" t="n">
+      <c r="P60" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="Q52" s="14" t="n">
+      <c r="Q60" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="R52" s="14" t="n">
+      <c r="R60" s="20" t="n">
         <v>0.24</v>
       </c>
-      <c r="S52" s="14" t="n">
+      <c r="S60" s="20" t="n">
         <v>0.14</v>
       </c>
-      <c r="T52" s="14" t="n">
+      <c r="T60" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="U52" s="14" t="n">
+      <c r="U60" s="20" t="n">
         <v>0.15</v>
       </c>
-      <c r="V52" s="14" t="n">
+      <c r="V60" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="W52" s="14" t="n">
+      <c r="W60" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="X52" s="14" t="n">
+      <c r="X60" s="20" t="n">
         <v>0.13</v>
       </c>
-      <c r="Y52" s="14" t="n">
+      <c r="Y60" s="20" t="n">
         <v>0.11</v>
       </c>
-      <c r="Z52" s="14" t="n">
+      <c r="Z60" s="20" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="14" t="n">
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="20" t="n">
         <v>0.63</v>
       </c>
-      <c r="C53" s="14" t="n">
+      <c r="C61" s="20" t="n">
         <v>0.63</v>
       </c>
-      <c r="D53" s="14" t="n">
+      <c r="D61" s="20" t="n">
         <v>0.61</v>
       </c>
-      <c r="E53" s="14" t="n">
+      <c r="E61" s="20" t="n">
         <v>0.65</v>
       </c>
-      <c r="F53" s="14" t="n">
+      <c r="F61" s="20" t="n">
         <v>0.45</v>
       </c>
-      <c r="G53" s="14" t="n">
+      <c r="G61" s="20" t="n">
         <v>0.6</v>
       </c>
-      <c r="H53" s="14" t="n">
+      <c r="H61" s="20" t="n">
         <v>0.61</v>
       </c>
-      <c r="I53" s="14" t="n">
+      <c r="I61" s="20" t="n">
         <v>0.85</v>
       </c>
-      <c r="J53" s="14" t="n">
+      <c r="J61" s="20" t="n">
         <v>0.66</v>
       </c>
-      <c r="K53" s="14" t="n">
+      <c r="K61" s="20" t="n">
         <v>0.53</v>
       </c>
-      <c r="L53" s="14" t="n">
+      <c r="L61" s="20" t="n">
         <v>0.44</v>
       </c>
-      <c r="M53" s="14" t="n">
+      <c r="M61" s="20" t="n">
         <v>0.5</v>
       </c>
-      <c r="N53" s="14" t="n">
+      <c r="N61" s="20" t="n">
         <v>0.53</v>
       </c>
-      <c r="O53" s="14" t="n">
+      <c r="O61" s="20" t="n">
         <v>0.49</v>
       </c>
-      <c r="P53" s="14" t="n">
+      <c r="P61" s="20" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q53" s="14" t="n">
+      <c r="Q61" s="20" t="n">
         <v>0.77</v>
       </c>
-      <c r="R53" s="14" t="n">
+      <c r="R61" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="S53" s="14" t="n">
+      <c r="S61" s="20" t="n">
         <v>0.47</v>
       </c>
-      <c r="T53" s="14" t="n">
+      <c r="T61" s="20" t="n">
         <v>0.71</v>
       </c>
-      <c r="U53" s="14" t="n">
+      <c r="U61" s="20" t="n">
         <v>0.63</v>
       </c>
-      <c r="V53" s="14" t="n">
+      <c r="V61" s="20" t="n">
         <v>0.66</v>
       </c>
-      <c r="W53" s="14" t="n">
+      <c r="W61" s="20" t="n">
         <v>0.87</v>
       </c>
-      <c r="X53" s="14" t="n">
+      <c r="X61" s="20" t="n">
         <v>0.63</v>
       </c>
-      <c r="Y53" s="14" t="n">
+      <c r="Y61" s="20" t="n">
         <v>0.63</v>
       </c>
-      <c r="Z53" s="14" t="n">
+      <c r="Z61" s="20" t="n">
         <v>0.63</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="14" t="n">
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="E55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="14" t="n">
-        <f aca="false">(B51+B52)*B43</f>
+      <c r="E63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="20" t="n">
+        <f aca="false">(B59+B60)*B51</f>
         <v>0.148</v>
       </c>
-      <c r="C57" s="14" t="n">
-        <f aca="false">(C51+C52)*C43</f>
+      <c r="C65" s="20" t="n">
+        <f aca="false">(C59+C60)*C51</f>
         <v>0.1443</v>
       </c>
-      <c r="D57" s="14" t="n">
-        <f aca="false">(D51+D52)*D43</f>
+      <c r="D65" s="20" t="n">
+        <f aca="false">(D59+D60)*D51</f>
         <v>0.1596</v>
       </c>
-      <c r="E57" s="14" t="n">
-        <f aca="false">(E51+E52)*E43</f>
+      <c r="E65" s="20" t="n">
+        <f aca="false">(E59+E60)*E51</f>
         <v>0.1332</v>
       </c>
-      <c r="F57" s="14" t="n">
-        <f aca="false">(F51+F52)*F43</f>
+      <c r="F65" s="20" t="n">
+        <f aca="false">(F59+F60)*F51</f>
         <v>0.1624</v>
       </c>
-      <c r="G57" s="14" t="n">
-        <f aca="false">(G51+G52)*G43</f>
+      <c r="G65" s="20" t="n">
+        <f aca="false">(G59+G60)*G51</f>
         <v>0.1599</v>
       </c>
-      <c r="H57" s="14" t="n">
-        <f aca="false">(H51+H52)*H43</f>
+      <c r="H65" s="20" t="n">
+        <f aca="false">(H59+H60)*H51</f>
         <v>0.1677</v>
       </c>
-      <c r="I57" s="14" t="n">
-        <f aca="false">(I51+I52)*I43</f>
+      <c r="I65" s="20" t="n">
+        <f aca="false">(I59+I60)*I51</f>
         <v>0.0832</v>
       </c>
-      <c r="J57" s="14" t="n">
-        <f aca="false">(J51+J52)*J43</f>
+      <c r="J65" s="20" t="n">
+        <f aca="false">(J59+J60)*J51</f>
         <v>0.1462</v>
       </c>
-      <c r="K57" s="14" t="n">
-        <f aca="false">(K51+K52)*K43</f>
+      <c r="K65" s="20" t="n">
+        <f aca="false">(K59+K60)*K51</f>
         <v>0.141</v>
       </c>
-      <c r="L57" s="14" t="n">
-        <f aca="false">(L51+L52)*L43</f>
+      <c r="L65" s="20" t="n">
+        <f aca="false">(L59+L60)*L51</f>
         <v>0.2016</v>
       </c>
-      <c r="M57" s="14" t="n">
-        <f aca="false">(M51+M52)*M43</f>
+      <c r="M65" s="20" t="n">
+        <f aca="false">(M59+M60)*M51</f>
         <v>0.1421</v>
       </c>
-      <c r="N57" s="14" t="n">
-        <f aca="false">(N51+N52)*N43</f>
+      <c r="N65" s="20" t="n">
+        <f aca="false">(N59+N60)*N51</f>
         <v>0.2256</v>
       </c>
-      <c r="O57" s="14" t="n">
-        <f aca="false">(O51+O52)*O43</f>
+      <c r="O65" s="20" t="n">
+        <f aca="false">(O59+O60)*O51</f>
         <v>0.2601</v>
       </c>
-      <c r="P57" s="14" t="n">
-        <f aca="false">(P51+P52)*P43</f>
+      <c r="P65" s="20" t="n">
+        <f aca="false">(P59+P60)*P51</f>
         <v>0.1748</v>
       </c>
-      <c r="Q57" s="14" t="n">
-        <f aca="false">(Q51+Q52)*Q43</f>
+      <c r="Q65" s="20" t="n">
+        <f aca="false">(Q59+Q60)*Q51</f>
         <v>0.0667</v>
       </c>
-      <c r="R57" s="14" t="n">
-        <f aca="false">(R51+R52)*R43</f>
+      <c r="R65" s="20" t="n">
+        <f aca="false">(R59+R60)*R51</f>
         <v>0.3036</v>
       </c>
-      <c r="S57" s="14" t="n">
-        <f aca="false">(S51+S52)*S43</f>
+      <c r="S65" s="20" t="n">
+        <f aca="false">(S59+S60)*S51</f>
         <v>0.2809</v>
       </c>
-      <c r="T57" s="14" t="n">
-        <f aca="false">(T51+T52)*T43</f>
+      <c r="T65" s="20" t="n">
+        <f aca="false">(T59+T60)*T51</f>
         <v>0.1148</v>
       </c>
-      <c r="U57" s="14" t="n">
-        <f aca="false">(U51+U52)*U43</f>
+      <c r="U65" s="20" t="n">
+        <f aca="false">(U59+U60)*U51</f>
         <v>0.1665</v>
       </c>
-      <c r="V57" s="14" t="n">
-        <f aca="false">(V51+V52)*V43</f>
+      <c r="V65" s="20" t="n">
+        <f aca="false">(V59+V60)*V51</f>
         <v>0.1462</v>
       </c>
-      <c r="W57" s="14" t="n">
-        <f aca="false">(W51+W52)*W43</f>
+      <c r="W65" s="20" t="n">
+        <f aca="false">(W59+W60)*W51</f>
         <v>0.0468</v>
       </c>
-      <c r="X57" s="14" t="n">
-        <f aca="false">(X51+X52)*X43</f>
+      <c r="X65" s="20" t="n">
+        <f aca="false">(X59+X60)*X51</f>
         <v>0.076</v>
       </c>
-      <c r="Y57" s="14" t="n">
-        <f aca="false">(Y51+Y52)*Y43</f>
+      <c r="Y65" s="20" t="n">
+        <f aca="false">(Y59+Y60)*Y51</f>
         <v>0.1554</v>
       </c>
-      <c r="Z57" s="14" t="n">
-        <f aca="false">(Z51+Z52)*Z43</f>
+      <c r="Z65" s="20" t="n">
+        <f aca="false">(Z59+Z60)*Z51</f>
         <v>0.1224</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12" t="s">
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="s">
+      <c r="C69" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="14" t="n">
+      <c r="B70" s="20" t="n">
         <v>0.32</v>
       </c>
-      <c r="C62" s="14" t="n">
+      <c r="C70" s="20" t="n">
         <v>0.3</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="14" t="n">
+      <c r="B71" s="20" t="n">
         <v>0.67</v>
       </c>
-      <c r="C63" s="14" t="n">
+      <c r="C71" s="20" t="n">
         <v>0.66</v>
       </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" s="14" t="n">
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="14"/>
-      <c r="W65" s="14"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="10"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" s="9" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-    </row>
-    <row r="69" s="9" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-    </row>
-    <row r="70" s="9" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="AA71" s="2"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="19"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+    </row>
+    <row r="77" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+    </row>
+    <row r="78" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
+    </row>
+    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="AA72" s="2"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20"/>
-      <c r="B73" s="10"/>
-      <c r="AA73" s="10"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="26"/>
+      <c r="B81" s="16"/>
+      <c r="AA81" s="16"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="AA74" s="21"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="21" t="n">
+      <c r="B82" s="16"/>
+      <c r="AA82" s="27"/>
+    </row>
+    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="27" t="n">
         <v>0.47</v>
       </c>
-      <c r="AA75" s="21"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="21" t="n">
+      <c r="AA83" s="27"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="27" t="n">
         <v>0.53</v>
       </c>
-      <c r="AA76" s="21"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20" t="s">
+      <c r="AA84" s="27"/>
+    </row>
+    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="AA77" s="21"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="21" t="n">
+      <c r="B85" s="16"/>
+      <c r="AA85" s="27"/>
+    </row>
+    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="27" t="n">
         <v>0.292</v>
       </c>
-      <c r="AA78" s="21"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="21" t="n">
+      <c r="AA86" s="27"/>
+    </row>
+    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="27" t="n">
         <v>0.244</v>
       </c>
-      <c r="AA79" s="21"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="21" t="n">
+      <c r="AA87" s="27"/>
+    </row>
+    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="27" t="n">
         <v>0.236</v>
       </c>
-      <c r="AA80" s="21"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="21" t="n">
+      <c r="AA88" s="27"/>
+    </row>
+    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="27" t="n">
         <v>0.173</v>
       </c>
-      <c r="AA81" s="21"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="20" t="s">
+      <c r="AA89" s="27"/>
+    </row>
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="AA82" s="21"/>
-    </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="21" t="n">
+      <c r="B90" s="27"/>
+      <c r="AA90" s="27"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="27" t="n">
         <v>0.727</v>
       </c>
-      <c r="AA83" s="21"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="21" t="n">
+      <c r="AA91" s="27"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="27" t="n">
         <v>0.158</v>
       </c>
-      <c r="AA84" s="21"/>
-    </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="21" t="n">
+      <c r="AA92" s="27"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="27" t="n">
         <v>0.109</v>
       </c>
-      <c r="AA85" s="10"/>
-    </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="21" t="n">
+      <c r="AA93" s="16"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="27" t="n">
         <v>0.103</v>
       </c>
-      <c r="AA86" s="21"/>
-    </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="20" t="s">
+      <c r="AA94" s="27"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="AA87" s="21"/>
-    </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="21" t="n">
+      <c r="B95" s="16"/>
+      <c r="AA95" s="27"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="27" t="n">
         <v>0.043</v>
       </c>
-      <c r="AA88" s="21"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="21" t="n">
+      <c r="AA96" s="27"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="27" t="n">
         <v>0.209</v>
       </c>
-      <c r="AA89" s="21"/>
-    </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="21" t="n">
+      <c r="AA97" s="27"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="27" t="n">
         <v>0.2723</v>
       </c>
-      <c r="AA90" s="21"/>
-    </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="21" t="n">
+      <c r="AA98" s="27"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="27" t="n">
         <v>0.461</v>
       </c>
-      <c r="AA91" s="21"/>
-    </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20" t="s">
+      <c r="AA99" s="27"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="AA92" s="21"/>
-    </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="21" t="n">
+      <c r="B100" s="27"/>
+      <c r="AA100" s="27"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="27" t="n">
         <v>0.108</v>
       </c>
-      <c r="AA93" s="21"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B94" s="21" t="n">
+      <c r="AA101" s="27"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" s="27" t="n">
         <v>0.111</v>
       </c>
-      <c r="AA94" s="21"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B95" s="21" t="n">
+      <c r="AA102" s="27"/>
+    </row>
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="27" t="n">
         <v>0.14</v>
       </c>
-      <c r="AA95" s="21"/>
-    </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B96" s="21" t="n">
+      <c r="AA103" s="27"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="27" t="n">
         <v>0.127</v>
       </c>
-      <c r="AA96" s="21"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B97" s="21" t="n">
+      <c r="AA104" s="27"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="27" t="n">
         <v>0.105</v>
       </c>
-      <c r="AA97" s="21"/>
-    </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B98" s="21" t="n">
+      <c r="AA105" s="27"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="27" t="n">
         <v>0.156</v>
       </c>
-      <c r="AA98" s="21"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" s="21" t="n">
+      <c r="AA106" s="27"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="27" t="n">
         <v>0.075</v>
       </c>
-      <c r="AA99" s="21"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="21"/>
-      <c r="AA100" s="10"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20" t="s">
+      <c r="AA107" s="27"/>
+    </row>
+    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="21" t="n">
+      <c r="B108" s="27"/>
+      <c r="AA108" s="16"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="27" t="n">
         <v>0.355</v>
       </c>
-      <c r="AA101" s="2"/>
-    </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B102" s="21" t="n">
+      <c r="AA109" s="2"/>
+    </row>
+    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="27" t="n">
         <v>0.63</v>
       </c>
-      <c r="AA102" s="2"/>
-    </row>
-    <row r="1047622" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1047623" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1047624" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1047625" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1047626" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1047627" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1047628" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1047629" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AA110" s="2"/>
+    </row>
     <row r="1047630" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1047631" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1047632" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5934,7 +6449,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="53">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A6:Z6"/>
     <mergeCell ref="D7:E7"/>
@@ -5943,28 +6458,28 @@
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="R7:X7"/>
     <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="A17:Z17"/>
-    <mergeCell ref="A18:Z18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="A28:Z28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:X29"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="A40:Z40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="R41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="A14:Z14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="A25:Z25"/>
+    <mergeCell ref="A26:Z26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="R27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="A36:Z36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
     <mergeCell ref="A48:Z48"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="F49:I49"/>
@@ -5972,15 +6487,22 @@
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="R49:X49"/>
     <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="A59:Z59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="R60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A56:Z56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:X57"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="A67:Z67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.990277777777778" bottom="0.470138888888889" header="0.3" footer="0.3"/>
@@ -5993,8 +6515,8 @@
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" man="true" max="16383" min="0"/>
-    <brk id="67" man="true" max="16383" min="0"/>
+    <brk id="55" man="true" max="16383" min="0"/>
+    <brk id="75" man="true" max="16383" min="0"/>
   </rowBreaks>
 </worksheet>
 </file>